--- a/simulations/cleaned_inclusion_exclusion/van_de_Valk_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_de_Valk_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D5">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D7">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D9">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D13">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>43</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>55</v>
       </c>
       <c r="C17">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D17">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>67</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D19">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>79</v>
       </c>
       <c r="C21">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D21">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>83</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>102</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>105</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>108</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -744,10 +744,10 @@
         <v>127</v>
       </c>
       <c r="C32">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D32">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -758,10 +758,10 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D33">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -769,10 +769,10 @@
         <v>113</v>
       </c>
       <c r="C34">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D34">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -780,10 +780,10 @@
         <v>114</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -824,10 +824,10 @@
         <v>130</v>
       </c>
       <c r="C39">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D39">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -846,10 +846,10 @@
         <v>134</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -871,10 +871,10 @@
         <v>134</v>
       </c>
       <c r="C43">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>104</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -882,10 +882,10 @@
         <v>146</v>
       </c>
       <c r="C44">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D44">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -904,10 +904,10 @@
         <v>155</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -926,10 +926,10 @@
         <v>168</v>
       </c>
       <c r="C48">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D48">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -948,10 +948,10 @@
         <v>183</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -970,10 +970,10 @@
         <v>194</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1003,10 +1003,10 @@
         <v>197</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1014,10 +1014,10 @@
         <v>198</v>
       </c>
       <c r="C56">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D56">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1036,10 +1036,10 @@
         <v>201</v>
       </c>
       <c r="C58">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D58">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>208</v>
       </c>
       <c r="C60">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1080,10 +1080,10 @@
         <v>246</v>
       </c>
       <c r="C62">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D62">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1102,10 +1102,10 @@
         <v>251</v>
       </c>
       <c r="C64">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1135,10 +1135,10 @@
         <v>258</v>
       </c>
       <c r="C67">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D67">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1146,10 +1146,10 @@
         <v>259</v>
       </c>
       <c r="C68">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D68">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1168,10 +1168,10 @@
         <v>264</v>
       </c>
       <c r="C70">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D70">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1215,10 +1215,10 @@
         <v>294</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D74">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>295</v>
       </c>
       <c r="C75">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D75">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1248,10 +1248,10 @@
         <v>302</v>
       </c>
       <c r="C77">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D77">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1270,10 +1270,10 @@
         <v>310</v>
       </c>
       <c r="C79">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D79">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1292,10 +1292,10 @@
         <v>315</v>
       </c>
       <c r="C81">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D81">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1339,10 +1339,10 @@
         <v>19</v>
       </c>
       <c r="C85">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>23.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1361,10 +1361,10 @@
         <v>336</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>337</v>
       </c>
       <c r="C88">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D88">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1394,10 +1394,10 @@
         <v>341</v>
       </c>
       <c r="C90">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="D90">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>361</v>
       </c>
       <c r="C91">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D91">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1427,10 +1427,10 @@
         <v>364</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D93">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1449,10 +1449,10 @@
         <v>381</v>
       </c>
       <c r="C95">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D95">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1471,10 +1471,10 @@
         <v>394</v>
       </c>
       <c r="C97">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D97">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1493,10 +1493,10 @@
         <v>405</v>
       </c>
       <c r="C99">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D99">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>412</v>
       </c>
       <c r="C101">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D101">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1537,10 +1537,10 @@
         <v>420</v>
       </c>
       <c r="C103">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D103">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1559,10 +1559,10 @@
         <v>424</v>
       </c>
       <c r="C105">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D105">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1581,10 +1581,10 @@
         <v>431</v>
       </c>
       <c r="C107">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D107">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1614,10 +1614,10 @@
         <v>439</v>
       </c>
       <c r="C110">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D110">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1628,10 +1628,10 @@
         <v>193</v>
       </c>
       <c r="C111">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D111">
-        <v>127.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1650,10 +1650,10 @@
         <v>442</v>
       </c>
       <c r="C113">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D113">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1664,10 +1664,10 @@
         <v>370</v>
       </c>
       <c r="C114">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D114">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1686,10 +1686,10 @@
         <v>445</v>
       </c>
       <c r="C116">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D116">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1700,10 +1700,10 @@
         <v>55</v>
       </c>
       <c r="C117">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D117">
-        <v>77.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1722,10 +1722,10 @@
         <v>448</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D119">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1733,10 +1733,10 @@
         <v>449</v>
       </c>
       <c r="C120">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D120">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -1758,10 +1758,10 @@
         <v>154</v>
       </c>
       <c r="C122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122">
-        <v>83.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>460</v>
       </c>
       <c r="C123">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D123">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1791,10 +1791,10 @@
         <v>479</v>
       </c>
       <c r="C125">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D125">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1813,10 +1813,10 @@
         <v>494</v>
       </c>
       <c r="C127">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D127">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -1835,10 +1835,10 @@
         <v>499</v>
       </c>
       <c r="C129">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D129">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -1857,10 +1857,10 @@
         <v>502</v>
       </c>
       <c r="C131">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="D131">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -1879,10 +1879,10 @@
         <v>506</v>
       </c>
       <c r="C133">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D133">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -1901,10 +1901,10 @@
         <v>520</v>
       </c>
       <c r="C135">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D135">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -1923,10 +1923,10 @@
         <v>524</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D137">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -1945,10 +1945,10 @@
         <v>544</v>
       </c>
       <c r="C139">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D139">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -1967,10 +1967,10 @@
         <v>562</v>
       </c>
       <c r="C141">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D141">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -1989,10 +1989,10 @@
         <v>567</v>
       </c>
       <c r="C143">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D143">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2011,10 +2011,10 @@
         <v>571</v>
       </c>
       <c r="C145">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D145">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2033,10 +2033,10 @@
         <v>576</v>
       </c>
       <c r="C147">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D147">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2055,10 +2055,10 @@
         <v>610</v>
       </c>
       <c r="C149">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D149">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2088,10 +2088,10 @@
         <v>618</v>
       </c>
       <c r="C152">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="D152">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2099,10 +2099,10 @@
         <v>619</v>
       </c>
       <c r="C153">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D153">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2121,10 +2121,10 @@
         <v>624</v>
       </c>
       <c r="C155">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D155">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2143,10 +2143,10 @@
         <v>639</v>
       </c>
       <c r="C157">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D157">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2165,10 +2165,10 @@
         <v>655</v>
       </c>
       <c r="C159">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D159">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2187,10 +2187,10 @@
         <v>668</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D161">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2209,10 +2209,10 @@
         <v>677</v>
       </c>
       <c r="C163">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D163">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2231,10 +2231,10 @@
         <v>681</v>
       </c>
       <c r="C165">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="D165">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2253,10 +2253,10 @@
         <v>716</v>
       </c>
       <c r="C167">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D167">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2275,10 +2275,10 @@
         <v>720</v>
       </c>
       <c r="C169">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D169">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2289,7 +2289,7 @@
         <v>157.7840909090909</v>
       </c>
       <c r="C170">
-        <v>157.8314606741573</v>
+        <v>152.5056179775281</v>
       </c>
     </row>
   </sheetData>
